--- a/assets/translations/Turkish.Turkey.tr-TR.xlsx
+++ b/assets/translations/Turkish.Turkey.tr-TR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alp/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F709CA-DF0A-441D-B5C9-678939AFBC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C6B43-B90B-AF47-8B98-18E5AF6FC0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17540" yWindow="3760" windowWidth="32700" windowHeight="22980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributors" sheetId="2" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>White light is made up of multiple wavelengths, which we perceive as colours.</t>
   </si>
   <si>
-    <t>When we see different colours, we are actually seeing different wavelengths of light. Short wavelengths appear violet, while longer wavelengths appear indigo, blue, green, yellow, orange, and red.</t>
-  </si>
-  <si>
     <t>The amount of light around us (or the amount we are exposed to) changes as we move between indoor and outdoor spaces, throughout the day, and across seasons.</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>Beyaz ışık, bizim renkler olarak algıladığımız çok sayıda dalga boyundan oluşur.</t>
   </si>
   <si>
-    <t>Farklı renkleri gördüğümüzde, aslında farklı dalga boylarındaki ışığı görüyoruz. Kısa dalga boyları mor, uzun dalga boyları ise indigo, mavi, yeşil, sarı, turuncu ve kırmızı olarak görünür.</t>
-  </si>
-  <si>
     <t>İnsan fotoreseptörleri (7-9)</t>
   </si>
   <si>
@@ -425,9 +419,6 @@
     <t>Gözde, retina farklı renkleri algılamamızı sağlayan hücreler içerir.</t>
   </si>
   <si>
-    <t>İnsan gözünde, retina ışığa duyarlı hücreler içerir ve bu hücreler ışığı beyin için sinyallere dönüştürür. Bu hücrelere koni, çubuk ve içsel olarak ışığa duyarlı retina ganglion hücreleri (ipRGC)denir26,27.</t>
-  </si>
-  <si>
     <t>Koniler, parlak ışık koşullarında renkleri, hareketi ve uzamsal ayrıntıları görmemizi sağlar.</t>
   </si>
   <si>
@@ -461,9 +452,6 @@
     <t>Işık, özellikle akşam ve gece saatlerinde melatonin (uyku-uyanıklık döngüsünü düzenleyen bir hormon) üretimini engeller.</t>
   </si>
   <si>
-    <t>ipRGC'ler melanopsin (ışığa duyarlı bir protein) eksprese ederler. ipRGC'ler parlak ışık algıladığında, melanopsin aktive olur. Bu aktivasyon, pineal bezde melatonin üretimini bloke eden bir nöronal yolu tetikler.</t>
-  </si>
-  <si>
     <t>Işık, sirkadiyen sistemin çevrede 24 saatlik döngülerle senkronize olmasını sağlayan ana sinyaldir.</t>
   </si>
   <si>
@@ -476,9 +464,6 @@
     <t>Işık, beyindeki biyolojik saati doğrudan etkiler, uyku-uyanıklık döngülerini ve diğer günlük fizyolojik ritimleri düzenler.</t>
   </si>
   <si>
-    <t>Işık, uyku-uyanıklık düzenini ve diğer günlük ritimleri düzenleyen vücudun 'iç saat'ini etkiler.</t>
-  </si>
-  <si>
     <t>Işık maruziyeti uykuyu, hormon salınımını, metabolizmayı ve uyanıklığı etkiler.</t>
   </si>
   <si>
@@ -557,15 +542,9 @@
     <t>Gün içinde daha yoğun ışığa maruz kalmak uykuyu iyileştirebilir.</t>
   </si>
   <si>
-    <t>Doktorlar, kış depresyonu ve diğer sağlık durumlarının tedavisi için ışık terapisini önerebilir.</t>
-  </si>
-  <si>
     <t>Sağlıklı bir günlük düzen, gündüz parlak ışığı, gece ise karanlığı içerir.</t>
   </si>
   <si>
-    <t>Yaş ilerledikçe göz merceklerinin saydamlığı azalabilir, bu da ışığın iç saat ve uyku üzerindeki etkilerini azaltabilir.</t>
-  </si>
-  <si>
     <t>İnsanların ışığa verdiği tepkiler büyük ölçüde değişebilir.</t>
   </si>
   <si>
@@ -578,18 +557,12 @@
     <t>Bilim insanları, ışığın bedensel işlevler ve genel sağlık üzerindeki etkilerini incelemeye devam etmektedir.</t>
   </si>
   <si>
-    <t>Işık, beynin aktif hale gelmesini sağlar. Sabah ışığı vücudun iç saatini öne kaydırırken (daha erken bir 'zaman'a alır), akşam ışığı ise geriye kaydırır (daha geç bir 'zaman'a alır).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bazı koşullarda, gündüz ve gece yüksek yoğunluklu ışığa maruz kalmak uyanıklığı artırır ve bilişsel performansı geliştirir. </t>
   </si>
   <si>
     <t>ipRGC'lerin tepkisi muhtemelen zaman dilimine ve sirkadiyen faktörlere bağlıdır.</t>
   </si>
   <si>
-    <t>Akşam ışığına maruz kalmak, vücuda hâlâ gündüz olduğunu bildirir. Bu durum uyanıklığı artırır ve iç saati daha geç bir zamana kaydırır.</t>
-  </si>
-  <si>
     <t>Parlamasız koşullarda doğal ışığa (günışığı) veya yüksek yoğunluklu yapay ışığa maruz kalmak, stresi azaltabilir ve duygusal dengeyi artırabilir.</t>
   </si>
   <si>
@@ -657,6 +630,48 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0001-9809-2406</t>
+  </si>
+  <si>
+    <t>Işık, spektrumuyla tanımlanır; görünür spektrumda (yaklaşık 380 ila 780 nm) her dalga boyundaki enerji miktarı bunu belirler.</t>
+  </si>
+  <si>
+    <t>Işık maruziyeti, yoğunluğuyla tanımlanır; bu, 380 ila 780 nm arasındaki tüm dalga boylarında, ilgi alanına göre ağırlıklandırılmış toplam enerji miktarını ifade eder.</t>
+  </si>
+  <si>
+    <t>Atılan</t>
+  </si>
+  <si>
+    <t>Çetin</t>
+  </si>
+  <si>
+    <t>Farklı renkleri gördüğümüzde, aslında farklı dalga boylarındaki ışığı görüyoruz. Kısa dalga boyları mor ve mavi, uzun dalga boyları ise sarı, turuncu ve kırmızı olarak görünür.</t>
+  </si>
+  <si>
+    <t>İnsan gözünde, retina ışığa duyarlı hücreler içerir ve bu hücreler ışığı beyin için sinyallere dönüştürür. Bu hücrelere koni, çubuk ve içsel olarak ışığa duyarlı retina ganglion hücreleri (ipRGC)denir.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we see different colours, we are actually seeing different wavelengths of light. Short wavelengths appear violet, while longer wavelengths appear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>indigo, blue, green,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yellow, orange, and red.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -666,11 +681,8 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>26,27</t>
     </r>
@@ -687,23 +699,29 @@
     </r>
   </si>
   <si>
-    <t>Işık, spektrumuyla tanımlanır; görünür spektrumda (yaklaşık 380 ila 780 nm) her dalga boyundaki enerji miktarı bunu belirler.</t>
-  </si>
-  <si>
-    <t>Işık maruziyeti, yoğunluğuyla tanımlanır; bu, 380 ila 780 nm arasındaki tüm dalga boylarında, ilgi alanına göre ağırlıklandırılmış toplam enerji miktarını ifade eder.</t>
-  </si>
-  <si>
-    <t>Atılan</t>
-  </si>
-  <si>
-    <t>Çetin</t>
+    <t>ipRGC'ler melanopsin (ışığa duyarlı bir protein) içerirler. ipRGC'ler parlak ışık algıladığında, melanopsin aktive olur. Bu aktivasyon, pineal bezde melatonin üretimini bloke eden bir nöronal yolu tetikler.</t>
+  </si>
+  <si>
+    <t>Işık, beynin aktif hale gelmesini sağlar. Sabah ışığı vücudun biyolojik saatini öne kaydırırken (daha erken bir 'zaman'a alır), akşam ışığı ise geriye kaydırır (daha geç bir 'zaman'a alır).</t>
+  </si>
+  <si>
+    <t>Akşam ışığına maruz kalmak, vücuda hâlâ gündüz olduğunu bildirir. Bu durum uyanıklığı artırır ve biyolojik saati daha geç bir zamana kaydırır.</t>
+  </si>
+  <si>
+    <t>Yaş ilerledikçe göz merceklerinin saydamlığı azalabilir, bu da ışığın biyolojik saat ve uyku üzerindeki etkilerini azaltabilir.</t>
+  </si>
+  <si>
+    <t>Işık, uyku-uyanıklık düzenini ve diğer günlük ritimleri düzenleyen vücudun 'biyolojik saat'ini etkiler.</t>
+  </si>
+  <si>
+    <t>Doktorlar, kış depresyonu ve bazı diğer sağlık durumlarının tedavisi için ışık terapisini önerebilir.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,15 +781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -812,6 +821,17 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1062,24 +1082,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1403,115 +1423,115 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="21.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.19921875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="2"/>
+    <col min="4" max="4" width="25.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7">
       <c r="A1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.6">
+    <row r="2" spans="1:7" s="3" customFormat="1">
       <c r="A2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A3" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A4" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A5" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1531,26 +1551,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="8" width="42.296875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="42.296875" style="22" customWidth="1"/>
+    <col min="4" max="8" width="42.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="22" customWidth="1"/>
     <col min="10" max="16384" width="11.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -1559,27 +1579,27 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="78">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="85">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -1588,744 +1608,744 @@
         <v>4</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="78">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="93.6">
+    </row>
+    <row r="4" spans="1:9" ht="102">
       <c r="A4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="93.6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="93.6">
+    </row>
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="46.8">
+    </row>
+    <row r="7" spans="1:9" ht="51">
       <c r="A7" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="16">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="79.8">
+    </row>
+    <row r="8" spans="1:9" ht="88">
       <c r="A8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="13">
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="78">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="85">
       <c r="A9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="46.8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="13">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="46.8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="78">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="85">
       <c r="A12" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C12" s="13">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="62.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C13" s="13">
         <v>12</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="46.8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
       <c r="A14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C14" s="13">
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="62.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68">
       <c r="A15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15" s="13">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="62.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C16" s="13">
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="I16" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="62.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C17" s="13">
         <v>16</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="I17" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="46.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C18" s="13">
         <v>17</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="46.8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C19" s="13">
         <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="G19" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="I19" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
+      <c r="A20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="46.8">
-      <c r="A20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C20" s="13">
         <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="62.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C21" s="13">
         <v>20</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="I21" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="62.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C22" s="13">
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="I22" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="46.8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C23" s="13">
         <v>22</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="I23" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="46.8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
       <c r="A24" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C24" s="13">
         <v>23</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="I24" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="46.8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C25" s="13">
         <v>24</v>
       </c>
       <c r="D25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="I25" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="109.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="119">
       <c r="A26" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C26" s="13">
         <v>25</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="I26" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="94.2" thickBot="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="103" thickBot="1">
       <c r="A27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C27" s="18">
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="G27" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="I27" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2343,58 +2363,58 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.8">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="115" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="115.05" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="B2" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="84">
+      <c r="A3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="79.2">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="84">
+      <c r="A4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="79.2">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="84">
+      <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="79.2">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="84">
+      <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="79.2">
-      <c r="A6" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="B6" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
